--- a/data/trans_orig/P36BPD11_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>307343</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>280384</v>
+        <v>278721</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>334658</v>
+        <v>335784</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4477424259850027</v>
+        <v>0.4477424259850026</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4084670882201258</v>
+        <v>0.4060450232810122</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4875341141493444</v>
+        <v>0.4891754394713984</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>631</v>
@@ -762,19 +762,19 @@
         <v>348472</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>326994</v>
+        <v>324306</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>373825</v>
+        <v>371713</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4766208934378787</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4472441753445408</v>
+        <v>0.4435676382081065</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5112975143468436</v>
+        <v>0.5084084875200008</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>971</v>
@@ -783,19 +783,19 @@
         <v>655816</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>620715</v>
+        <v>623280</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>697191</v>
+        <v>691926</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4626369927425756</v>
+        <v>0.4626369927425757</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4378758603263502</v>
+        <v>0.4396848786425425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.491824783040487</v>
+        <v>0.4881105960291161</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>226545</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>201461</v>
+        <v>201714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>253674</v>
+        <v>253838</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3300341843805285</v>
+        <v>0.3300341843805284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2934909903534449</v>
+        <v>0.2938601572868983</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3695553371413005</v>
+        <v>0.3697952836829243</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>415</v>
@@ -833,19 +833,19 @@
         <v>258324</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>235705</v>
+        <v>234951</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>280695</v>
+        <v>281424</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.353321384591309</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.322383669694796</v>
+        <v>0.3213532577537894</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3839187231530422</v>
+        <v>0.3849156564620568</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>650</v>
@@ -854,19 +854,19 @@
         <v>484869</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>448769</v>
+        <v>451076</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>519037</v>
+        <v>519097</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3420449587993037</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3165781536141922</v>
+        <v>0.3182058936232433</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3661480982563219</v>
+        <v>0.3661904439614406</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>152541</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>130047</v>
+        <v>129170</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>178844</v>
+        <v>180826</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2222233896344689</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1894548987814541</v>
+        <v>0.1881767726550748</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2605427405203582</v>
+        <v>0.2634306391744229</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>189</v>
@@ -904,19 +904,19 @@
         <v>124334</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>106168</v>
+        <v>107395</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>142630</v>
+        <v>144104</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1700577219708124</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1452109094032598</v>
+        <v>0.1468887163185461</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.19508101433858</v>
+        <v>0.1970968932025358</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>340</v>
@@ -925,19 +925,19 @@
         <v>276875</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>247370</v>
+        <v>247665</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>309236</v>
+        <v>309361</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1953180484581207</v>
+        <v>0.1953180484581208</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1745038282696987</v>
+        <v>0.1747119942208364</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2181463658980985</v>
+        <v>0.2182347977511995</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>467105</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>433019</v>
+        <v>429926</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501831</v>
+        <v>503751</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4453211854010926</v>
+        <v>0.4453211854010924</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4128253142192713</v>
+        <v>0.4098756714691663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4784275743770899</v>
+        <v>0.4802579842089726</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>761</v>
@@ -1050,19 +1050,19 @@
         <v>511317</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>479855</v>
+        <v>483044</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>537916</v>
+        <v>538252</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4780374590777479</v>
+        <v>0.478037459077748</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4486234111227008</v>
+        <v>0.4516042616576786</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5029049586946948</v>
+        <v>0.5032194785764618</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1219</v>
@@ -1071,19 +1071,19 @@
         <v>978422</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>936462</v>
+        <v>932519</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1026063</v>
+        <v>1023125</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.461839153397805</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4420328812227664</v>
+        <v>0.4401717704209933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4843268830801365</v>
+        <v>0.4829402787416167</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>388190</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>355336</v>
+        <v>352418</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>424203</v>
+        <v>425906</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3700861615190329</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3387650400248324</v>
+        <v>0.335983104767501</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4044195435438713</v>
+        <v>0.4060439801332251</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>540</v>
@@ -1121,19 +1121,19 @@
         <v>400070</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>370155</v>
+        <v>376807</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>428178</v>
+        <v>427607</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3740307867207247</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3460627462132456</v>
+        <v>0.3522817050345388</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4003099202431826</v>
+        <v>0.3997758888291322</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>881</v>
@@ -1142,19 +1142,19 @@
         <v>788259</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>742606</v>
+        <v>746496</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>835589</v>
+        <v>837561</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.372077745080307</v>
+        <v>0.3720777450803069</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3505283276960281</v>
+        <v>0.3523642470134061</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3944183719423984</v>
+        <v>0.3953492534766317</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>193622</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163914</v>
+        <v>163801</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>224981</v>
+        <v>223936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1845926530798746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.156269761979119</v>
+        <v>0.156162186373147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2144892221492119</v>
+        <v>0.2134926719936664</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>213</v>
@@ -1192,19 +1192,19 @@
         <v>158230</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>138089</v>
+        <v>137909</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>181782</v>
+        <v>184940</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1479317542015274</v>
+        <v>0.1479317542015275</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1291014735411702</v>
+        <v>0.1289334344116767</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1699508877889649</v>
+        <v>0.172903471002625</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>378</v>
@@ -1213,19 +1213,19 @@
         <v>351853</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>317555</v>
+        <v>317410</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>389965</v>
+        <v>391008</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.166083101521888</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1498937075926782</v>
+        <v>0.1498251675642527</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1840730030491159</v>
+        <v>0.1845652059543512</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>390209</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>354434</v>
+        <v>356743</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>419516</v>
+        <v>422011</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4858944709780452</v>
+        <v>0.4858944709780451</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4413470476244885</v>
+        <v>0.4442228091935386</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5223887175090197</v>
+        <v>0.5254956117507549</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>520</v>
@@ -1338,19 +1338,19 @@
         <v>381467</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>353704</v>
+        <v>355524</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>407494</v>
+        <v>409604</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4700636269568899</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4358532430733351</v>
+        <v>0.4380960001810758</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5021363463488095</v>
+        <v>0.5047356404113512</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>862</v>
@@ -1359,19 +1359,19 @@
         <v>771675</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>726840</v>
+        <v>730211</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>814563</v>
+        <v>815687</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4779376347169529</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4501686217370386</v>
+        <v>0.4522569082585438</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5045004384782427</v>
+        <v>0.5051963008597742</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>303670</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>271620</v>
+        <v>271359</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>334355</v>
+        <v>333432</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3781355872201232</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3382252928660526</v>
+        <v>0.3379003832650678</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4163444263799749</v>
+        <v>0.4151955633761025</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>374</v>
@@ -1409,19 +1409,19 @@
         <v>303246</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>277430</v>
+        <v>275957</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>330129</v>
+        <v>329018</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3736763127109919</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3418638167097325</v>
+        <v>0.3400494811651971</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.406802374248976</v>
+        <v>0.405433241093902</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>624</v>
@@ -1430,19 +1430,19 @@
         <v>606917</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>566199</v>
+        <v>566642</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>649390</v>
+        <v>646074</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.375894284288643</v>
+        <v>0.3758942842886429</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3506758126180359</v>
+        <v>0.350950010729056</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.402200482646794</v>
+        <v>0.4001464907002016</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>109194</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>89727</v>
+        <v>85523</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135804</v>
+        <v>134821</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1359699418018317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1117295781911147</v>
+        <v>0.1064941878487541</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1691052993753508</v>
+        <v>0.1678813999997906</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>152</v>
@@ -1480,19 +1480,19 @@
         <v>126808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106858</v>
+        <v>106715</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>150495</v>
+        <v>146943</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1562600603321183</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1316766447503384</v>
+        <v>0.1315000229900389</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1854483352854973</v>
+        <v>0.1810704978897845</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>236</v>
@@ -1501,19 +1501,19 @@
         <v>236002</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>206176</v>
+        <v>205341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>272774</v>
+        <v>268984</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.146168080994404</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1276954365996243</v>
+        <v>0.1271777933014903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1689427048685293</v>
+        <v>0.1665957211100355</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>456551</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>422569</v>
+        <v>422993</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>490012</v>
+        <v>488442</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4611335008825383</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4268109364374751</v>
+        <v>0.4272387216147662</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4949308051072734</v>
+        <v>0.493344435118087</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>834</v>
@@ -1626,19 +1626,19 @@
         <v>578262</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>547397</v>
+        <v>550616</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>609237</v>
+        <v>609129</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5176585199554892</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4900284923966128</v>
+        <v>0.492910160063793</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5453874691678019</v>
+        <v>0.5452910052956267</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1317</v>
@@ -1647,19 +1647,19 @@
         <v>1034813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>990999</v>
+        <v>987606</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1080039</v>
+        <v>1078045</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4910995565037972</v>
+        <v>0.4910995565037973</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.470306556235946</v>
+        <v>0.4686964695056727</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5125628044194422</v>
+        <v>0.511616847418261</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>362906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>331822</v>
+        <v>330947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>400502</v>
+        <v>396732</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3665483900554655</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3351525286811511</v>
+        <v>0.3342694010952766</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4045216736437132</v>
+        <v>0.4007145263087325</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>517</v>
@@ -1697,19 +1697,19 @@
         <v>381347</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>354225</v>
+        <v>354969</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>412239</v>
+        <v>408291</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3413809877678807</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3171015016511827</v>
+        <v>0.3177673171972817</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.369035227814266</v>
+        <v>0.3655015027159969</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>872</v>
@@ -1718,19 +1718,19 @@
         <v>744253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>700558</v>
+        <v>704072</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>785822</v>
+        <v>790500</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3532061959410497</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3324697938586852</v>
+        <v>0.3341371829253641</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3729338597837287</v>
+        <v>0.3751541072203958</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>170606</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>146433</v>
+        <v>145447</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>197014</v>
+        <v>199771</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1723181090619961</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1479025400001353</v>
+        <v>0.146907276169205</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.198991677866545</v>
+        <v>0.2017761351995168</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>208</v>
@@ -1768,19 +1768,19 @@
         <v>157463</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>136747</v>
+        <v>137559</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>180373</v>
+        <v>179149</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1409604922766301</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1224157671725166</v>
+        <v>0.1231427568203713</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1614697529792516</v>
+        <v>0.1603732884477614</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>376</v>
@@ -1789,19 +1789,19 @@
         <v>328069</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>293935</v>
+        <v>295449</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>361593</v>
+        <v>359338</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.155694247555153</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1394951013666128</v>
+        <v>0.1402135233603792</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1716039786392529</v>
+        <v>0.1705340626889176</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>1621208</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1558061</v>
+        <v>1556062</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1688971</v>
+        <v>1683560</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4594633867104114</v>
+        <v>0.4594633867104115</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4415670609882979</v>
+        <v>0.4410004221160859</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4786677613502873</v>
+        <v>0.4771342246024345</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2746</v>
@@ -1914,19 +1914,19 @@
         <v>1819517</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1759433</v>
+        <v>1767644</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1868857</v>
+        <v>1875166</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4878925357679872</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4717813950198244</v>
+        <v>0.4739829855512667</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5011227919563419</v>
+        <v>0.502814570166445</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4369</v>
@@ -1935,19 +1935,19 @@
         <v>3440725</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3354135</v>
+        <v>3348330</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3528603</v>
+        <v>3524481</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4740713463199503</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4621407705205166</v>
+        <v>0.4613409366880113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4861793177345646</v>
+        <v>0.48561139012939</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>1281311</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1217456</v>
+        <v>1220104</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1352996</v>
+        <v>1343172</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3631338274959132</v>
+        <v>0.3631338274959131</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3450368116149377</v>
+        <v>0.3457870894154876</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3834498096738222</v>
+        <v>0.3806656428307114</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1846</v>
@@ -1985,19 +1985,19 @@
         <v>1342987</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1290496</v>
+        <v>1291124</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1396561</v>
+        <v>1394248</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3601138176604679</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.346038637315122</v>
+        <v>0.3462071691617399</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3744793199947098</v>
+        <v>0.3738592200522462</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3027</v>
@@ -2006,19 +2006,19 @@
         <v>2624298</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2548890</v>
+        <v>2546014</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2701534</v>
+        <v>2711763</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3615820335393917</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3511920698954137</v>
+        <v>0.3507959248502359</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3722237269932019</v>
+        <v>0.3736332237795257</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>625963</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>568923</v>
+        <v>578183</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>676598</v>
+        <v>679957</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1774027857936755</v>
+        <v>0.1774027857936754</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1612372208380831</v>
+        <v>0.1638616651073452</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1917531733694846</v>
+        <v>0.1927052245457189</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>762</v>
@@ -2056,19 +2056,19 @@
         <v>566836</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>529281</v>
+        <v>526184</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>608549</v>
+        <v>608268</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1519936465715449</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.141923540418961</v>
+        <v>0.1410930161908024</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1631787909561012</v>
+        <v>0.1631034854950162</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1330</v>
@@ -2077,19 +2077,19 @@
         <v>1192799</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1134240</v>
+        <v>1124071</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1259138</v>
+        <v>1259664</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1643466201406581</v>
+        <v>0.164346620140658</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1562783480933933</v>
+        <v>0.1548771916681259</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1734870139124502</v>
+        <v>0.1735595368507179</v>
       </c>
     </row>
     <row r="23">
